--- a/data/raw/d_quarterly_income_raw.xlsx
+++ b/data/raw/d_quarterly_income_raw.xlsx
@@ -6777,7 +6777,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>10895000000</t>
+          <t>11182000000</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
@@ -6912,7 +6912,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>14250000000</t>
+          <t>14597000000</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -7047,7 +7047,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>18798000000</t>
+          <t>19260000000</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
@@ -7317,7 +7317,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>12408000000</t>
+          <t>12696000000</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
@@ -7452,7 +7452,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>16124000000</t>
+          <t>15384000000</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
@@ -9342,7 +9342,7 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>1576000000</t>
+          <t>1442000000</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
@@ -9477,7 +9477,7 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>1509000000</t>
+          <t>1392000000</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">

--- a/data/raw/d_quarterly_income_raw.xlsx
+++ b/data/raw/d_quarterly_income_raw.xlsx
@@ -592,42 +592,42 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>43879000000</t>
+          <t>4704819000</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94930000000</t>
+          <t>9824703000</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>57574000000</t>
+          <t>5119884000</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>51051000000</t>
+          <t>5119884000</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>29591000000</t>
+          <t>2909477000</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>6523000000</t>
+          <t>1060279000</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>7765000000</t>
+          <t>735063000</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>14288000000</t>
+          <t>1795342000</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -637,7 +637,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>-206523000</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -647,12 +647,12 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>184830000</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>94930000000</t>
+          <t>-104809000</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -667,17 +667,17 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>2911000000</t>
+          <t>3780435000</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>29610000000</t>
+          <t>2702954000</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>14874000000</t>
+          <t>339445000</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -687,27 +687,27 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>14736000000</t>
+          <t>2363509000</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>15980000000</t>
+          <t>2108001000</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>29591000000</t>
+          <t>2887784000</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>32502000000</t>
+          <t>6668219000</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>14736000000</t>
+          <t>2363509000</t>
         </is>
       </c>
     </row>
@@ -727,42 +727,42 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>39678000000</t>
+          <t>4385167000</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>85777000000</t>
+          <t>9559310000</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>52419000000</t>
+          <t>5174143000</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>46099000000</t>
+          <t>5174216000</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>25352000000</t>
+          <t>2602837000</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>6320000000</t>
+          <t>1071076000</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>8006000000</t>
+          <t>711254000</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>14326000000</t>
+          <t>1782330000</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -772,22 +772,22 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>-88981000</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>79005000</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>167986000</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>85777000000</t>
+          <t>42692000</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -802,17 +802,17 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>2850000000</t>
+          <t>3850917000</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>25494000000</t>
+          <t>2513856000</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>4046000000</t>
+          <t>366550000</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -822,27 +822,27 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>21448000000</t>
+          <t>2147306000</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>21992000000</t>
+          <t>2170071000</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>25352000000</t>
+          <t>2681842000</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>28202000000</t>
+          <t>6532759000</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>21448000000</t>
+          <t>2147306000</t>
         </is>
       </c>
     </row>
@@ -862,42 +862,42 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>42271000000</t>
+          <t>4393367000</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90753000000</t>
+          <t>9370440000</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>54950000000</t>
+          <t>4977073000</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>48482000000</t>
+          <t>4977267000</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>27900000000</t>
+          <t>2632534000</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>6468000000</t>
+          <t>1058360000</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>7903000000</t>
+          <t>702473000</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>14371000000</t>
+          <t>1760833000</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -907,22 +907,22 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>-173314000</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>155359000</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>173314000</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>90753000000</t>
+          <t>130801000</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -937,47 +937,47 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>2836000000</t>
+          <t>3758039000</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>28058000000</t>
+          <t>2614579000</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>4422000000</t>
+          <t>282370000</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>173314000</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>23636000000</t>
+          <t>2332209000</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>24054000000</t>
+          <t>2444275000</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>27900000000</t>
+          <t>2787893000</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>30736000000</t>
+          <t>6545932000</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>23636000000</t>
+          <t>2332209000</t>
         </is>
       </c>
     </row>
@@ -997,42 +997,42 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>54855000000</t>
+          <t>3525340000</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>119575000000</t>
+          <t>8832825000</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>71506000000</t>
+          <t>5307485000</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>64720000000</t>
+          <t>5307485000</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>40373000000</t>
+          <t>1496109000</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>6786000000</t>
+          <t>3087890000</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>7696000000</t>
+          <t>673341000</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>14482000000</t>
+          <t>3761231000</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>-175212000</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -1052,12 +1052,12 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1002000000</t>
+          <t>175212000</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>119575000000</t>
+          <t>-239371000</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -1072,47 +1072,47 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>2848000000</t>
+          <t>3840646000</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>40323000000</t>
+          <t>1148150000</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>6407000000</t>
+          <t>210312000</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>175212000</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>33916000000</t>
+          <t>937838000</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>35990000000</t>
+          <t>869464000</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>40373000000</t>
+          <t>1323362000</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>43221000000</t>
+          <t>5336755000</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>33916000000</t>
+          <t>937838000</t>
         </is>
       </c>
     </row>
@@ -1132,72 +1132,72 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>40427000000</t>
+          <t>3610880000</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>88496000000</t>
+          <t>8541668000</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>55222000000</t>
+          <t>4930788000</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>49071000000</t>
+          <t>4930788000</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>26969000000</t>
+          <t>1916394000</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>6151000000</t>
+          <t>1037327000</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>7307000000</t>
+          <t>657159000</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>13458000000</t>
+          <t>1694486000</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>984000000</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>-1002000000</t>
+          <t>-175563000</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>18000000</t>
+          <t>7345000</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1002000000</t>
+          <t>175563000</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>89498000000</t>
+          <t>172678000</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>47000000</t>
+          <t>None</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1207,47 +1207,47 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>2653000000</t>
+          <t>3664013000</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>26998000000</t>
+          <t>1909049000</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>4042000000</t>
+          <t>231627000</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>1002000000</t>
+          <t>175563000</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>22956000000</t>
+          <t>1677422000</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>23305000000</t>
+          <t>1661117000</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>28000000000</t>
+          <t>2084612000</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>29622000000</t>
+          <t>5580407000</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>22956000000</t>
+          <t>1677422000</t>
         </is>
       </c>
     </row>
@@ -1267,72 +1267,72 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>36413000000</t>
+          <t>3513831000</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>80799000000</t>
+          <t>8187301000</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>51357000000</t>
+          <t>4673470000</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>45384000000</t>
+          <t>4673470000</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>22998000000</t>
+          <t>1827183000</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>5973000000</t>
+          <t>1028665000</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>7442000000</t>
+          <t>657983000</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>13415000000</t>
+          <t>1686648000</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>980000000</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>-998000000</t>
+          <t>-174812000</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>18000000</t>
+          <t>26961000</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>998000000</t>
+          <t>174812000</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>81797000000</t>
+          <t>-28952000</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-247000000</t>
+          <t>26961000</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -1342,47 +1342,47 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>3052000000</t>
+          <t>3526367000</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>22733000000</t>
+          <t>1679332000</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>2852000000</t>
+          <t>191722000</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>998000000</t>
+          <t>174812000</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>19881000000</t>
+          <t>1487610000</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>19826000000</t>
+          <t>1540039000</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>23731000000</t>
+          <t>1854144000</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>26050000000</t>
+          <t>5353550000</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>19881000000</t>
+          <t>1487610000</t>
         </is>
       </c>
     </row>
@@ -1402,42 +1402,42 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>41976000000</t>
+          <t>3357878000</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94836000000</t>
+          <t>8161503000</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>59061000000</t>
+          <t>4803625000</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>52860000000</t>
+          <t>4803625000</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>28318000000</t>
+          <t>1714317000</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>6201000000</t>
+          <t>956286000</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7457000000</t>
+          <t>687275000</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>13658000000</t>
+          <t>1643561000</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1447,27 +1447,27 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>-12000000</t>
+          <t>-174239000</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>12000000</t>
+          <t>71204000</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>930000000</t>
+          <t>174239000</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>94836000000</t>
+          <t>-80651000</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>76000000</t>
+          <t>-71204000</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1477,47 +1477,47 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>2898000000</t>
+          <t>3550319000</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>28382000000</t>
+          <t>1468874000</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>4222000000</t>
+          <t>163754000</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>174239000</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>24160000000</t>
+          <t>1305120000</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>25326000000</t>
+          <t>1330731000</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>29312000000</t>
+          <t>1643113000</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>31216000000</t>
+          <t>5264636000</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>24160000000</t>
+          <t>1305120000</t>
         </is>
       </c>
     </row>
@@ -1537,72 +1537,72 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>50332000000</t>
+          <t>2447893000</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>116151000000</t>
+          <t>7852053000</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>73429000000</t>
+          <t>5404160000</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>66822000000</t>
+          <t>5404160000</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>36016000000</t>
+          <t>549904000</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>6607000000</t>
+          <t>2810063000</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>7709000000</t>
+          <t>673926000</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>14316000000</t>
+          <t>3483989000</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>868000000</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>-1003000000</t>
+          <t>-170603000</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>135000000</t>
+          <t>339965000</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1003000000</t>
+          <t>170603000</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>117154000000</t>
+          <t>-461681000</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>-258000000</t>
+          <t>-339965000</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1612,47 +1612,47 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>2916000000</t>
+          <t>4038214000</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>35623000000</t>
+          <t>39336000</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>5625000000</t>
+          <t>-15948000</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>1003000000</t>
+          <t>170603000</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>29998000000</t>
+          <t>55284000</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>28195000000</t>
+          <t>85621000</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>36626000000</t>
+          <t>209939000</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>38932000000</t>
+          <t>4588118000</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>29998000000</t>
+          <t>55284000</t>
         </is>
       </c>
     </row>
@@ -1672,72 +1672,72 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>38095000000</t>
+          <t>3136924000</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>89319000000</t>
+          <t>7925589000</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>58491000000</t>
+          <t>4788665000</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>52051000000</t>
+          <t>4788665000</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>24894000000</t>
+          <t>1533018000</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>6440000000</t>
+          <t>941167000</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>6761000000</t>
+          <t>662739000</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>13201000000</t>
+          <t>1603906000</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>753000000</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>-827000000</t>
+          <t>-172575000</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>74000000</t>
+          <t>261404000</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>827000000</t>
+          <t>172575000</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>90146000000</t>
+          <t>348458000</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>-163000000</t>
+          <t>261404000</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1747,47 +1747,47 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>2865000000</t>
+          <t>4000184000</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>24657000000</t>
+          <t>1621847000</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>3936000000</t>
+          <t>223605000</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>827000000</t>
+          <t>172575000</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>20721000000</t>
+          <t>1398242000</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>18909000000</t>
+          <t>1295075000</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>25484000000</t>
+          <t>1794422000</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>28349000000</t>
+          <t>5533202000</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>20721000000</t>
+          <t>1398242000</t>
         </is>
       </c>
     </row>
@@ -1807,72 +1807,72 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>35885000000</t>
+          <t>3279386000</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>82240000000</t>
+          <t>7970141000</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>53086000000</t>
+          <t>4690755000</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>47074000000</t>
+          <t>4690755000</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>23076000000</t>
+          <t>1578283000</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>6012000000</t>
+          <t>984257000</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>6797000000</t>
+          <t>716846000</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>12809000000</t>
+          <t>1701103000</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>722000000</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>-719000000</t>
+          <t>-175455000</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>722000000</t>
+          <t>220226000</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>719000000</t>
+          <t>175455000</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>82959000000</t>
+          <t>304513000</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>-13000000</t>
+          <t>220226000</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1882,47 +1882,47 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>2805000000</t>
+          <t>3565079000</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>23066000000</t>
+          <t>1623054000</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>3624000000</t>
+          <t>182103000</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>719000000</t>
+          <t>175455000</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>19442000000</t>
+          <t>1440951000</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>16639000000</t>
+          <t>1370645000</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>23785000000</t>
+          <t>1798509000</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>25881000000</t>
+          <t>5143362000</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>19442000000</t>
+          <t>1440951000</t>
         </is>
       </c>
     </row>
@@ -1942,72 +1942,72 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>42559000000</t>
+          <t>3583062000</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>96587000000</t>
+          <t>7867767000</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>60912000000</t>
+          <t>4284705000</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>54719000000</t>
+          <t>4284705000</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>29979000000</t>
+          <t>1971626000</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>6193000000</t>
+          <t>953906000</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>6387000000</t>
+          <t>657530000</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>12580000000</t>
+          <t>1611436000</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>700000000</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>-691000000</t>
+          <t>-187579000</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>700000000</t>
+          <t>195645000</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>691000000</t>
+          <t>187579000</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>97278000000</t>
+          <t>161821000</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>151000000</t>
+          <t>195645000</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -2017,47 +2017,47 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>2737000000</t>
+          <t>3436612000</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>30139000000</t>
+          <t>1979692000</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>5129000000</t>
+          <t>382245000</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>691000000</t>
+          <t>187579000</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>25010000000</t>
+          <t>1597447000</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>19443000000</t>
+          <t>1563772000</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>30830000000</t>
+          <t>2167271000</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>32716000000</t>
+          <t>5408238000</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>25010000000</t>
+          <t>1597447000</t>
         </is>
       </c>
     </row>
@@ -2077,72 +2077,72 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>54243000000</t>
+          <t>2469743000</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>123251000000</t>
+          <t>7709318000</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>76151000000</t>
+          <t>5239575000</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>69702000000</t>
+          <t>5239575000</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>41488000000</t>
+          <t>631770000</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>6449000000</t>
+          <t>2859503000</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>6306000000</t>
+          <t>647470000</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>12755000000</t>
+          <t>1233088000</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>650000000</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>-694000000</t>
+          <t>-189429000</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>650000000</t>
+          <t>108512000</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>694000000</t>
+          <t>189429000</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>123945000000</t>
+          <t>103917000</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>-203000000</t>
+          <t>108512000</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -2152,47 +2152,47 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>2697000000</t>
+          <t>3805301000</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>41241000000</t>
+          <t>550853000</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>6611000000</t>
+          <t>-56576000</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>694000000</t>
+          <t>189429000</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>34630000000</t>
+          <t>607429000</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>33540000000</t>
+          <t>586769000</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>41935000000</t>
+          <t>740282000</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>44185000000</t>
+          <t>4437071000</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>34630000000</t>
+          <t>607429000</t>
         </is>
       </c>
     </row>
@@ -2212,72 +2212,72 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>35174000000</t>
+          <t>3276878000</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>82688000000</t>
+          <t>7483467000</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>53802000000</t>
+          <t>4206589000</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>48186000000</t>
+          <t>4206589000</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>23786000000</t>
+          <t>1755253000</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>5616000000</t>
+          <t>957738000</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>5772000000</t>
+          <t>563887000</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>11388000000</t>
+          <t>1521625000</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>659000000</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>-672000000</t>
+          <t>-190429000</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>659000000</t>
+          <t>96135000</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>672000000</t>
+          <t>190429000</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>83360000000</t>
+          <t>136488000</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>-525000000</t>
+          <t>96135000</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -2287,47 +2287,47 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>2989000000</t>
+          <t>3033304000</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>23248000000</t>
+          <t>1660959000</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>2697000000</t>
+          <t>211888000</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>672000000</t>
+          <t>190429000</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>20551000000</t>
+          <t>1449071000</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>20656000000</t>
+          <t>1419461000</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>23920000000</t>
+          <t>1851388000</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>26775000000</t>
+          <t>4788557000</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>20551000000</t>
+          <t>1449071000</t>
         </is>
       </c>
     </row>
@@ -2347,72 +2347,72 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>35255000000</t>
+          <t>3323769000</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>80769000000</t>
+          <t>7341777000</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>51591000000</t>
+          <t>4018008000</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>46179000000</t>
+          <t>4018008000</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>24126000000</t>
+          <t>1847630000</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>5412000000</t>
+          <t>938818000</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>5717000000</t>
+          <t>537321000</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>11129000000</t>
+          <t>1476139000</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>719000000</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>-665000000</t>
+          <t>-191322000</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>719000000</t>
+          <t>None</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>665000000</t>
+          <t>191322000</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>81434000000</t>
+          <t>-63074000</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>189000000</t>
+          <t>-62519000</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -2422,47 +2422,47 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>2832000000</t>
+          <t>2845237000</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>24369000000</t>
+          <t>1593789000</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>2625000000</t>
+          <t>240776000</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>665000000</t>
+          <t>191322000</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>21744000000</t>
+          <t>1353013000</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>22088000000</t>
+          <t>1358651000</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>25034000000</t>
+          <t>1785111000</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>26958000000</t>
+          <t>4692867000</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>21744000000</t>
+          <t>1353013000</t>
         </is>
       </c>
     </row>
@@ -2482,72 +2482,72 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>38079000000</t>
+          <t>3294771000</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>88914000000</t>
+          <t>7163282000</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>56819000000</t>
+          <t>3868511000</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>51505000000</t>
+          <t>3868511000</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>27503000000</t>
+          <t>1959856000</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>5314000000</t>
+          <t>809708000</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>5262000000</t>
+          <t>525207000</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>10576000000</t>
+          <t>1334915000</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>718000000</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>-670000000</t>
+          <t>-194440000</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>718000000</t>
+          <t>269086000</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>670000000</t>
+          <t>194440000</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>89584000000</t>
+          <t>253330000</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>460000000</t>
+          <t>269086000</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -2557,47 +2557,47 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>2797000000</t>
+          <t>2754937000</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>28011000000</t>
+          <t>2034502000</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>4381000000</t>
+          <t>327787000</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>670000000</t>
+          <t>194440000</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>23630000000</t>
+          <t>1706715000</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>23165000000</t>
+          <t>1666454000</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>28681000000</t>
+          <t>2228942000</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>30300000000</t>
+          <t>4714793000</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>23630000000</t>
+          <t>1706715000</t>
         </is>
       </c>
     </row>
@@ -2617,72 +2617,72 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>44328000000</t>
+          <t>2479282000</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>110801000000</t>
+          <t>6644442000</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>72742000000</t>
+          <t>4165160000</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>67111000000</t>
+          <t>4165160000</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>33534000000</t>
+          <t>954242000</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>5631000000</t>
+          <t>2485104000</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>5163000000</t>
+          <t>486936000</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>10794000000</t>
+          <t>3126440000</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>747000000</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>-638000000</t>
+          <t>-197186000</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>747000000</t>
+          <t>None</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>638000000</t>
+          <t>197186000</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>111439000000</t>
+          <t>-257983000</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>-64000000</t>
+          <t>-250639000</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -2692,47 +2692,47 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>2666000000</t>
+          <t>3014568000</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>33579000000</t>
+          <t>506417000</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>4824000000</t>
+          <t>-35739000</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>638000000</t>
+          <t>197186000</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>28755000000</t>
+          <t>2479282000</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>29340000000</t>
+          <t>587701000</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>34217000000</t>
+          <t>703603000</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>36200000000</t>
+          <t>3968810000</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>28755000000</t>
+          <t>542156000</t>
         </is>
       </c>
     </row>
@@ -2752,72 +2752,72 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>24689000000</t>
+          <t>2567886000</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>64698000000</t>
+          <t>6435637000</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>44945000000</t>
+          <t>3867751000</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>40009000000</t>
+          <t>3867751000</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>14775000000</t>
+          <t>1314863000</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>4936000000</t>
+          <t>799221000</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>4978000000</t>
+          <t>453802000</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>9914000000</t>
+          <t>1253023000</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>768000000</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>-634000000</t>
+          <t>-197079000</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>134000000</t>
+          <t>None</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>634000000</t>
+          <t>197079000</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>64698000000</t>
+          <t>-249194000</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>-8000000</t>
+          <t>-256324000</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -2827,47 +2827,47 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>2702000000</t>
+          <t>2762332000</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>14901000000</t>
+          <t>861460000</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>2228000000</t>
+          <t>71484000</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>634000000</t>
+          <t>197079000</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>24689000000</t>
+          <t>789976000</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>12817000000</t>
+          <t>822901000</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>15535000000</t>
+          <t>1058539000</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>17477000000</t>
+          <t>4077195000</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>12673000000</t>
+          <t>789976000</t>
         </is>
       </c>
     </row>
@@ -2887,72 +2887,72 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>22680000000</t>
+          <t>2504579000</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>58988000000</t>
+          <t>6148286000</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>41836000000</t>
+          <t>3643707000</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>37005000000</t>
+          <t>3643707000</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>13091000000</t>
+          <t>1357928000</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>4831000000</t>
+          <t>711606000</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>4758000000</t>
+          <t>435045000</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>9589000000</t>
+          <t>1146651000</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>901000000</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>-697000000</t>
+          <t>-189151000</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>901000000</t>
+          <t>133175000</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>697000000</t>
+          <t>189151000</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>59685000000</t>
+          <t>-119161000</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>-158000000</t>
+          <t>-133175000</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -2962,47 +2962,47 @@
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>2752000000</t>
+          <t>2633820000</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>13137000000</t>
+          <t>1035602000</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>1884000000</t>
+          <t>315406000</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>697000000</t>
+          <t>189151000</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>11253000000</t>
+          <t>720196000</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>13492000000</t>
+          <t>733178000</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>13834000000</t>
+          <t>1224753000</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>15843000000</t>
+          <t>3991748000</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>11253000000</t>
+          <t>720196000</t>
         </is>
       </c>
     </row>
@@ -3022,72 +3022,72 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>22370000000</t>
+          <t>2167990000</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>57556000000</t>
+          <t>5767691000</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>40895000000</t>
+          <t>3599701000</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>35943000000</t>
+          <t>3599701000</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>12853000000</t>
+          <t>958256000</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>4952000000</t>
+          <t>755917000</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>4565000000</t>
+          <t>453817000</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>9517000000</t>
+          <t>1209734000</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>1049000000</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>-757000000</t>
+          <t>-184083000</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>1049000000</t>
+          <t>21697000</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>757000000</t>
+          <t>184083000</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>58313000000</t>
+          <t>93060000</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>-10000000</t>
+          <t>21697000</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -3097,47 +3097,47 @@
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>2786000000</t>
+          <t>2511902000</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>13135000000</t>
+          <t>795870000</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>1886000000</t>
+          <t>86803000</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>757000000</t>
+          <t>184083000</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>11249000000</t>
+          <t>709067000</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>8878000000</t>
+          <t>685534000</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>13892000000</t>
+          <t>979953000</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>15639000000</t>
+          <t>3470158000</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>11249000000</t>
+          <t>709067000</t>
         </is>
       </c>
     </row>
@@ -3157,72 +3157,72 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>35217000000</t>
+          <t>2001411000</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>91034000000</t>
+          <t>5467434000</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>61799000000</t>
+          <t>3466023000</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>56602000000</t>
+          <t>3466023000</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>25569000000</t>
+          <t>458512000</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>5197000000</t>
+          <t>3012523000</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>4451000000</t>
+          <t>537227000</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>9648000000</t>
+          <t>1754194000</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>1045000000</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>-785000000</t>
+          <t>-177801000</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>1045000000</t>
+          <t>131378000</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>785000000</t>
+          <t>177801000</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>91819000000</t>
+          <t>-122100000</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>89000000</t>
+          <t>-131378000</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -3232,47 +3232,47 @@
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>2816000000</t>
+          <t>2607487000</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>25918000000</t>
+          <t>149333000</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>3682000000</t>
+          <t>-437637000</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>785000000</t>
+          <t>177801000</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>22236000000</t>
+          <t>2001411000</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>22266000000</t>
+          <t>604695000</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>26703000000</t>
+          <t>327134000</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>28385000000</t>
+          <t>3065999000</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>22236000000</t>
+          <t>586970000</t>
         </is>
       </c>
     </row>
@@ -3292,72 +3292,72 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>24313000000</t>
+          <t>2146986000</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>64040000000</t>
+          <t>5244905000</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>44305000000</t>
+          <t>3097919000</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>39727000000</t>
+          <t>3097919000</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>15625000000</t>
+          <t>980239000</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>4578000000</t>
+          <t>786971000</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>4110000000</t>
+          <t>379776000</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>8688000000</t>
+          <t>1779697000</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>1106000000</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>-810000000</t>
+          <t>-160660000</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>1106000000</t>
+          <t>192744000</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>810000000</t>
+          <t>160660000</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>64040000000</t>
+          <t>171360000</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>206000000</t>
+          <t>192744000</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -3367,47 +3367,47 @@
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>3179000000</t>
+          <t>2313335000</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>16127000000</t>
+          <t>1012323000</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>2441000000</t>
+          <t>347079000</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>810000000</t>
+          <t>160660000</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>24313000000</t>
+          <t>665244000</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>13741000000</t>
+          <t>644350000</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>16937000000</t>
+          <t>1172983000</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>18804000000</t>
+          <t>3293574000</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>13686000000</t>
+          <t>665244000</t>
         </is>
       </c>
     </row>
@@ -3427,72 +3427,72 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>20227000000</t>
+          <t>1917459000</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>52943000000</t>
+          <t>4923116000</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>38008000000</t>
+          <t>3005657000</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>33582000000</t>
+          <t>3005657000</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>11544000000</t>
+          <t>706419000</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>4426000000</t>
+          <t>827807000</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>4257000000</t>
+          <t>383233000</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>8683000000</t>
+          <t>1818930000</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>1190000000</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>-866000000</t>
+          <t>-152033000</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>1190000000</t>
+          <t>53470000</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>866000000</t>
+          <t>152033000</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>53809000000</t>
+          <t>-61284000</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>43000000</t>
+          <t>-53470000</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -3502,47 +3502,47 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>2933000000</t>
+          <t>2265067000</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>11911000000</t>
+          <t>500916000</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>1867000000</t>
+          <t>230266000</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>866000000</t>
+          <t>152033000</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>10044000000</t>
+          <t>270650000</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>10904000000</t>
+          <t>275898000</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>12777000000</t>
+          <t>652949000</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>14477000000</t>
+          <t>2971486000</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>10044000000</t>
+          <t>270650000</t>
         </is>
       </c>
     </row>
@@ -3562,72 +3562,72 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>21821000000</t>
+          <t>1650378000</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>57005000000</t>
+          <t>4520992000</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>40652000000</t>
+          <t>2870614000</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>36194000000</t>
+          <t>2870614000</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>13415000000</t>
+          <t>459084000</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>4458000000</t>
+          <t>818530000</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>3948000000</t>
+          <t>372764000</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>8406000000</t>
+          <t>1766010000</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>1358000000</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>-1010000000</t>
+          <t>-135529000</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>1358000000</t>
+          <t>76104000</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>1010000000</t>
+          <t>135529000</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>58015000000</t>
+          <t>57600000</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>30000000</t>
+          <t>76104000</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -3637,47 +3637,47 @@
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>3040000000</t>
+          <t>2156756000</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>13793000000</t>
+          <t>399659000</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>2232000000</t>
+          <t>55607000</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>1010000000</t>
+          <t>135529000</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>11561000000</t>
+          <t>344052000</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>13650000000</t>
+          <t>338034000</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>14803000000</t>
+          <t>535188000</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>16455000000</t>
+          <t>2615840000</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>11561000000</t>
+          <t>344052000</t>
         </is>
       </c>
     </row>
@@ -3697,52 +3697,52 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>32031000000</t>
+          <t>1453441000</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>83420000000</t>
+          <t>4186841000</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>57062000000</t>
+          <t>2733400000</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>52279000000</t>
+          <t>2733400000</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>23346000000</t>
+          <t>215767000</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>4783000000</t>
+          <t>2432979000</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>3902000000</t>
+          <t>327975000</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>8685000000</t>
+          <t>2671636000</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>1307000000</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>-890000000</t>
+          <t>-128807000</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -3752,17 +3752,17 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>890000000</t>
+          <t>128807000</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>84310000000</t>
+          <t>21953000</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>143000000</t>
+          <t>32436000</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -3772,47 +3772,47 @@
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>3395000000</t>
+          <t>2085844000</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>23906000000</t>
+          <t>119396000</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>3941000000</t>
+          <t>-14538000</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>890000000</t>
+          <t>128807000</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>19965000000</t>
+          <t>1453441000</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>19742000000</t>
+          <t>128860000</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>24796000000</t>
+          <t>248203000</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>26741000000</t>
+          <t>2301611000</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>19965000000</t>
+          <t>133934000</t>
         </is>
       </c>
     </row>
@@ -3832,52 +3832,52 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>24084000000</t>
+          <t>1468246000</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>62900000000</t>
+          <t>3999374000</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>38816000000</t>
+          <t>2531128000</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>38816000000</t>
+          <t>2412346000</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>16118000000</t>
+          <t>480668000</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>4216000000</t>
+          <t>779334000</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>3750000000</t>
+          <t>308620000</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>7966000000</t>
+          <t>1777451000</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>1311000000</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>-868000000</t>
+          <t>-108862000</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -3887,17 +3887,17 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>868000000</t>
+          <t>108862000</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>62900000000</t>
+          <t>7670000</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>-140000000</t>
+          <t>7004000</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
@@ -3907,47 +3907,47 @@
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>2754000000</t>
+          <t>1942887000</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>16421000000</t>
+          <t>378810000</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>2296000000</t>
+          <t>-24025000</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>868000000</t>
+          <t>108862000</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>24084000000</t>
+          <t>402835000</t>
         </is>
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>13782000000</t>
+          <t>400754000</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>17289000000</t>
+          <t>487672000</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>18872000000</t>
+          <t>2423555000</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>14125000000</t>
+          <t>402835000</t>
         </is>
       </c>
     </row>
@@ -3967,52 +3967,52 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>20421000000</t>
+          <t>1504839000</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>53265000000</t>
+          <t>3907270000</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>32844000000</t>
+          <t>2402431000</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>32844000000</t>
+          <t>2289867000</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>12612000000</t>
+          <t>462213000</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>4108000000</t>
+          <t>837977000</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>3701000000</t>
+          <t>299095000</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>7809000000</t>
+          <t>1783600000</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>1418000000</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>-846000000</t>
+          <t>-101605000</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -4022,17 +4022,17 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>846000000</t>
+          <t>101605000</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>53265000000</t>
+          <t>85410000</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>100000000</t>
+          <t>68028000</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -4042,47 +4042,47 @@
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>2665000000</t>
+          <t>1848707000</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>13284000000</t>
+          <t>428636000</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>1765000000</t>
+          <t>44287000</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>846000000</t>
+          <t>101605000</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>11519000000</t>
+          <t>384349000</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>11472000000</t>
+          <t>367658000</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>14130000000</t>
+          <t>530241000</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>15277000000</t>
+          <t>2310920000</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>11519000000</t>
+          <t>384349000</t>
         </is>
       </c>
     </row>
@@ -4102,52 +4102,52 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>23422000000</t>
+          <t>1400277000</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>61137000000</t>
+          <t>3700856000</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>37715000000</t>
+          <t>2300579000</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>37715000000</t>
+          <t>2196075000</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>15894000000</t>
+          <t>446578000</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>4150000000</t>
+          <t>757473000</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>3378000000</t>
+          <t>282310000</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>7528000000</t>
+          <t>1637184000</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>1505000000</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>-792000000</t>
+          <t>-81219000</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -4157,17 +4157,17 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>792000000</t>
+          <t>81219000</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>61137000000</t>
+          <t>-41080000</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>-439000000</t>
+          <t>-65743000</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
@@ -4177,47 +4177,47 @@
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>2739000000</t>
+          <t>1779019000</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>16168000000</t>
+          <t>299616000</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>2346000000</t>
+          <t>9492000</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>792000000</t>
+          <t>81219000</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>13822000000</t>
+          <t>290124000</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>11877000000</t>
+          <t>314945000</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>16960000000</t>
+          <t>380835000</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>18633000000</t>
+          <t>2225597000</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>13822000000</t>
+          <t>290124000</t>
         </is>
       </c>
     </row>
@@ -4237,52 +4237,52 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>33912000000</t>
+          <t>1071421000</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>88293000000</t>
+          <t>3285755000</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>54381000000</t>
+          <t>2214334000</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>54381000000</t>
+          <t>2107354000</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>26274000000</t>
+          <t>245303000</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>4231000000</t>
+          <t>578986000</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>3407000000</t>
+          <t>201573000</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>7638000000</t>
+          <t>578986000</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>1452000000</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>-734000000</t>
+          <t>-75292000</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -4292,17 +4292,17 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>734000000</t>
+          <t>75292000</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>88293000000</t>
+          <t>-12850000</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>38000000</t>
+          <t>-38681000</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
@@ -4312,47 +4312,47 @@
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>2745000000</t>
+          <t>1745225000</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>27030000000</t>
+          <t>264617000</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>6965000000</t>
+          <t>79100000</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>734000000</t>
+          <t>75292000</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>20065000000</t>
+          <t>1099301000</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>19374000000</t>
+          <t>190322000</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>27764000000</t>
+          <t>339909000</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>29019000000</t>
+          <t>1990528000</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>20065000000</t>
+          <t>185517000</t>
         </is>
       </c>
     </row>
@@ -4372,52 +4372,52 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>19931000000</t>
+          <t>898620000</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>52579000000</t>
+          <t>2984859000</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>32648000000</t>
+          <t>2086239000</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>32648000000</t>
+          <t>1992980000</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>13120000000</t>
+          <t>208627000</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>3814000000</t>
+          <t>528016000</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>2997000000</t>
+          <t>255236000</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>6811000000</t>
+          <t>1254014000</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>1368000000</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>-666000000</t>
+          <t>-60688000</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -4427,17 +4427,17 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>666000000</t>
+          <t>60688000</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>-50830000</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>95000000</t>
+          <t>-31702000</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
@@ -4447,47 +4447,47 @@
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>2484000000</t>
+          <t>1659974000</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>13917000000</t>
+          <t>116237000</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>3203000000</t>
+          <t>-13353000</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>666000000</t>
+          <t>60688000</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>19931000000</t>
+          <t>129590000</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>11109000000</t>
+          <t>135596000</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>14583000000</t>
+          <t>176925000</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>15604000000</t>
+          <t>1868601000</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>10714000000</t>
+          <t>129590000</t>
         </is>
       </c>
     </row>
@@ -4507,52 +4507,52 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>17488000000</t>
+          <t>793768000</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>45408000000</t>
+          <t>2785464000</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>27920000000</t>
+          <t>1991696000</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>27920000000</t>
+          <t>1902308000</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>10768000000</t>
+          <t>127807000</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>3783000000</t>
+          <t>488266000</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>2937000000</t>
+          <t>267083000</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>6720000000</t>
+          <t>1236375000</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>1327000000</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>-602000000</t>
+          <t>-55482000</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -4562,17 +4562,17 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>602000000</t>
+          <t>55482000</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>-64220000</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>-185000000</t>
+          <t>-58363000</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
@@ -4582,47 +4582,47 @@
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>2354000000</t>
+          <t>1585856000</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>11308000000</t>
+          <t>13962000</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>2591000000</t>
+          <t>-51638000</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>602000000</t>
+          <t>55482000</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>17488000000</t>
+          <t>65600000</t>
         </is>
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>8594000000</t>
+          <t>80091000</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>11910000000</t>
+          <t>69444000</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>13122000000</t>
+          <t>1713663000</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>8717000000</t>
+          <t>65600000</t>
         </is>
       </c>
     </row>
@@ -4642,52 +4642,52 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>20591000000</t>
+          <t>895904000</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>52896000000</t>
+          <t>2636635000</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>32305000000</t>
+          <t>1740731000</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>32305000000</t>
+          <t>1657024000</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>14097000000</t>
+          <t>256942000</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>3718000000</t>
+          <t>465561000</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>2776000000</t>
+          <t>257108000</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>6494000000</t>
+          <t>1174068000</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>1282000000</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>-530000000</t>
+          <t>-46742000</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -4697,17 +4697,17 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>530000000</t>
+          <t>46742000</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>-165000000</t>
+          <t>13592000</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -4717,47 +4717,47 @@
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>2332000000</t>
+          <t>1339330000</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>14684000000</t>
+          <t>223792000</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>3655000000</t>
+          <t>45570000</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>530000000</t>
+          <t>46742000</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>20591000000</t>
+          <t>178222000</t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>10362000000</t>
+          <t>180928000</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>15214000000</t>
+          <t>270534000</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>16429000000</t>
+          <t>1596272000</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>11029000000</t>
+          <t>178222000</t>
         </is>
       </c>
     </row>
@@ -4777,52 +4777,52 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>30176000000</t>
+          <t>823122000</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>78351000000</t>
+          <t>2477541000</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>48175000000</t>
+          <t>1719716000</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>48175000000</t>
+          <t>1654419000</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>23359000000</t>
+          <t>153934000</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>3946000000</t>
+          <t>397979000</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>2871000000</t>
+          <t>141093000</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>6817000000</t>
+          <t>397979000</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>1224000000</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>-525000000</t>
+          <t>-43586000</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -4832,17 +4832,17 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>525000000</t>
+          <t>43586000</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>22800000</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>122000000</t>
+          <t>-20079000</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -4852,47 +4852,47 @@
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>2987000000</t>
+          <t>1363903000</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>24180000000</t>
+          <t>90269000</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>6289000000</t>
+          <t>23521000</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>525000000</t>
+          <t>43586000</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>17891000000</t>
+          <t>823122000</t>
         </is>
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>17502000000</t>
+          <t>54713000</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>24705000000</t>
+          <t>133855000</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>26346000000</t>
+          <t>1517837000</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>17891000000</t>
+          <t>66748000</t>
         </is>
       </c>
     </row>
@@ -4912,52 +4912,52 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>17813000000</t>
+          <t>757344000</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>47858000000</t>
+          <t>2290188000</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>40821000000</t>
+          <t>1593768000</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>29039000000</t>
+          <t>1532844000</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>11761000000</t>
+          <t>106036000</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>3482000000</t>
+          <t>435209000</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>2570000000</t>
+          <t>216099000</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>6052000000</t>
+          <t>1020573000</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>1036000000</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>-450000000</t>
+          <t>-35536000</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -4967,17 +4967,17 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>450000000</t>
+          <t>35536000</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>-159000000</t>
+          <t>8627000</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
@@ -4987,47 +4987,47 @@
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>2548000000</t>
+          <t>1257802000</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>12188000000</t>
+          <t>79127000</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>3174000000</t>
+          <t>27610000</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>450000000</t>
+          <t>35536000</t>
         </is>
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>17813000000</t>
+          <t>51517000</t>
         </is>
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>9755000000</t>
+          <t>53198000</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>12638000000</t>
+          <t>114663000</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>14309000000</t>
+          <t>1363838000</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>9014000000</t>
+          <t>51517000</t>
         </is>
       </c>
     </row>
@@ -5047,52 +5047,52 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>16106000000</t>
+          <t>632106000</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>41949000000</t>
+          <t>2105204000</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>29693000000</t>
+          <t>1525397000</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>26252000000</t>
+          <t>1473098000</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>10105000000</t>
+          <t>70370000</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>3441000000</t>
+          <t>354436000</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>2560000000</t>
+          <t>207300000</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>6001000000</t>
+          <t>907443000</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>1036000000</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>-409000000</t>
+          <t>-35455000</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -5102,17 +5102,17 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>409000000</t>
+          <t>35455000</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>-263000000</t>
+          <t>16317000</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
@@ -5122,47 +5122,47 @@
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>2526000000</t>
+          <t>1209513000</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>10469000000</t>
+          <t>51232000</t>
         </is>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>2673000000</t>
+          <t>10477000</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>409000000</t>
+          <t>35455000</t>
         </is>
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>7796000000</t>
+          <t>40755000</t>
         </is>
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>8737000000</t>
+          <t>36945000</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>10878000000</t>
+          <t>86687000</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>12631000000</t>
+          <t>1279883000</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>7796000000</t>
+          <t>40755000</t>
         </is>
       </c>
     </row>
@@ -5182,52 +5182,52 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>19921000000</t>
+          <t>588196000</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>50236000000</t>
+          <t>1957736000</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>34059000000</t>
+          <t>1418581000</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>30636000000</t>
+          <t>1369540000</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>13987000000</t>
+          <t>49453000</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>3423000000</t>
+          <t>335235000</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>2511000000</t>
+          <t>203508000</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>5934000000</t>
+          <t>869476000</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>986000000</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>-321000000</t>
+          <t>-35537000</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -5237,17 +5237,17 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>321000000</t>
+          <t>35537000</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>-510000000</t>
+          <t>25963000</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
@@ -5257,47 +5257,47 @@
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>2477000000</t>
+          <t>1093760000</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>14142000000</t>
+          <t>39879000</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>3626000000</t>
+          <t>12221000</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>321000000</t>
+          <t>35537000</t>
         </is>
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>10516000000</t>
+          <t>27658000</t>
         </is>
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>10948000000</t>
+          <t>36565000</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>14463000000</t>
+          <t>75416000</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>16464000000</t>
+          <t>1143213000</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>10516000000</t>
+          <t>27658000</t>
         </is>
       </c>
     </row>
@@ -5317,52 +5317,52 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>30423000000</t>
+          <t>573968000</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>75596000000</t>
+          <t>1823333000</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>49297000000</t>
+          <t>1249365000</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>45449000000</t>
+          <t>1249365000</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>24171000000</t>
+          <t>59894000</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>3848000000</t>
+          <t>1047515000</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>2404000000</t>
+          <t>100071000</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>6252000000</t>
+          <t>1518275000</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>941000000</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>-276000000</t>
+          <t>-35429000</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -5372,7 +5372,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>276000000</t>
+          <t>35429000</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -5382,7 +5382,7 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>-263000000</t>
+          <t>-3734000</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -5392,47 +5392,47 @@
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>2954000000</t>
+          <t>996142000</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>24573000000</t>
+          <t>20731000</t>
         </is>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>6212000000</t>
+          <t>-22447000</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>276000000</t>
+          <t>35429000</t>
         </is>
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>18361000000</t>
+          <t>560568000</t>
         </is>
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>17226000000</t>
+          <t>37760000</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>24849000000</t>
+          <t>56160000</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>27125000000</t>
+          <t>1056036000</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>18361000000</t>
+          <t>43178000</t>
         </is>
       </c>
     </row>
@@ -5452,52 +5452,52 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>20548000000</t>
+          <t>564397000</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>51501000000</t>
+          <t>1738355000</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>43858000000</t>
+          <t>1173958000</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>30953000000</t>
+          <t>1173958000</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>14623000000</t>
+          <t>73641000</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>3705000000</t>
+          <t>318994000</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>2220000000</t>
+          <t>171762000</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>5925000000</t>
+          <t>773410000</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>826000000</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>-238000000</t>
+          <t>-35333000</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -5507,7 +5507,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>238000000</t>
+          <t>35333000</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -5517,7 +5517,7 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>-149000000</t>
+          <t>3930000</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
@@ -5527,47 +5527,47 @@
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>3119000000</t>
+          <t>906039000</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>15062000000</t>
+          <t>42238000</t>
         </is>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>3938000000</t>
+          <t>12806000</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>238000000</t>
+          <t>35333000</t>
         </is>
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>20548000000</t>
+          <t>29432000</t>
         </is>
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>9681000000</t>
+          <t>29662000</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>15300000000</t>
+          <t>77571000</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>17742000000</t>
+          <t>979680000</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>11124000000</t>
+          <t>29432000</t>
         </is>
       </c>
     </row>
@@ -5587,52 +5587,52 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>19681000000</t>
+          <t>522942000</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>49404000000</t>
+          <t>1644694000</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>33488000000</t>
+          <t>1121752000</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>29924000000</t>
+          <t>1121752000</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>14083000000</t>
+          <t>74835000</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>3564000000</t>
+          <t>293046000</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>2034000000</t>
+          <t>155061000</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>5598000000</t>
+          <t>699074000</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>766000000</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>-201000000</t>
+          <t>-35217000</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -5642,7 +5642,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>201000000</t>
+          <t>35217000</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>-175000000</t>
+          <t>872000</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -5662,47 +5662,47 @@
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>3084000000</t>
+          <t>858994000</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>14473000000</t>
+          <t>40490000</t>
         </is>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>3796000000</t>
+          <t>14155000</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>201000000</t>
+          <t>35217000</t>
         </is>
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>10677000000</t>
+          <t>26335000</t>
         </is>
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>9065000000</t>
+          <t>31369000</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>14674000000</t>
+          <t>75707000</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>17167000000</t>
+          <t>933829000</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>10677000000</t>
+          <t>26335000</t>
         </is>
       </c>
     </row>
@@ -5722,52 +5722,52 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>23656000000</t>
+          <t>526728000</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>57847000000</t>
+          <t>1573129000</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>37814000000</t>
+          <t>1046401000</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>34354000000</t>
+          <t>1046401000</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>18278000000</t>
+          <t>97456000</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>3460000000</t>
+          <t>286166000</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>1918000000</t>
+          <t>143106000</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>5378000000</t>
+          <t>663867000</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>675000000</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>-163000000</t>
+          <t>-26737000</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -5777,7 +5777,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>163000000</t>
+          <t>26737000</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -5787,7 +5787,7 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>-226000000</t>
+          <t>-32293000</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -5797,47 +5797,47 @@
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>2479000000</t>
+          <t>785870000</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>18564000000</t>
+          <t>38426000</t>
         </is>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>4995000000</t>
+          <t>14730000</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>163000000</t>
+          <t>26737000</t>
         </is>
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>13569000000</t>
+          <t>23696000</t>
         </is>
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>14316000000</t>
+          <t>-15012000</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>18727000000</t>
+          <t>65163000</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>20757000000</t>
+          <t>883326000</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>13569000000</t>
+          <t>23696000</t>
         </is>
       </c>
     </row>
@@ -5857,52 +5857,52 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>29741000000</t>
+          <t>470396000</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>74468000000</t>
+          <t>1484728000</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>48458000000</t>
+          <t>1014332000</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>44858000000</t>
+          <t>1014332000</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>24246000000</t>
+          <t>65046000</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>3600000000</t>
+          <t>812574000</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>1895000000</t>
+          <t>51755000</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>5495000000</t>
+          <t>1140129000</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>654000000</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>-131000000</t>
+          <t>-13353000</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -5912,17 +5912,17 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>131000000</t>
+          <t>13353000</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>-8200000</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>-353000000</t>
+          <t>-6177000</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
@@ -5932,47 +5932,47 @@
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>2575000000</t>
+          <t>764843000</t>
         </is>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>24416000000</t>
+          <t>45516000</t>
         </is>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>6392000000</t>
+          <t>-37855000</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>131000000</t>
+          <t>13353000</t>
         </is>
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>18024000000</t>
+          <t>431796000</t>
         </is>
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>18905000000</t>
+          <t>77280000</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>24547000000</t>
+          <t>58869000</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>26821000000</t>
+          <t>829889000</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>18024000000</t>
+          <t>83371000</t>
         </is>
       </c>
     </row>
@@ -5992,52 +5992,52 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>16009000000</t>
+          <t>455038000</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>42123000000</t>
+          <t>1409432000</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>36172000000</t>
+          <t>954394000</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>26114000000</t>
+          <t>954394000</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>11165000000</t>
+          <t>110407000</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>3158000000</t>
+          <t>223678000</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>1686000000</t>
+          <t>120953000</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>4844000000</t>
+          <t>543608000</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>519000000</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>-115000000</t>
+          <t>-13486000</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -6047,17 +6047,17 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>115000000</t>
+          <t>13486000</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>-97000000</t>
+          <t>616000</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
@@ -6067,47 +6067,47 @@
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>1969000000</t>
+          <t>718780000</t>
         </is>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>11472000000</t>
+          <t>97537000</t>
         </is>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>3005000000</t>
+          <t>38242000</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>115000000</t>
+          <t>13486000</t>
         </is>
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>16009000000</t>
+          <t>59295000</t>
         </is>
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>9463000000</t>
+          <t>54438000</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>11587000000</t>
+          <t>111023000</t>
         </is>
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>13134000000</t>
+          <t>829187000</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>8467000000</t>
+          <t>59295000</t>
         </is>
       </c>
     </row>
@@ -6127,52 +6127,52 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>14735000000</t>
+          <t>425559000</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>37332000000</t>
+          <t>1340407000</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>25547000000</t>
+          <t>914848000</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>22697000000</t>
+          <t>914848000</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>10282000000</t>
+          <t>129600000</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2850000000</t>
+          <t>180777000</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>1603000000</t>
+          <t>115182000</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>4453000000</t>
+          <t>471155000</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>439000000</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>-100000000</t>
+          <t>-13328000</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -6182,17 +6182,17 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>100000000</t>
+          <t>13328000</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>-137000000</t>
+          <t>1100000</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
@@ -6202,47 +6202,47 @@
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>1946000000</t>
+          <t>668937000</t>
         </is>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>10484000000</t>
+          <t>117372000</t>
         </is>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>2736000000</t>
+          <t>46354000</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>100000000</t>
+          <t>13328000</t>
         </is>
       </c>
       <c r="W43" t="inlineStr">
         <is>
-          <t>7748000000</t>
+          <t>71018000</t>
         </is>
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>8085000000</t>
+          <t>73017000</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>10584000000</t>
+          <t>130700000</t>
         </is>
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>12228000000</t>
+          <t>798537000</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>7748000000</t>
+          <t>71018000</t>
         </is>
       </c>
     </row>
@@ -6262,52 +6262,52 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>17947000000</t>
+          <t>400903000</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>45561000000</t>
+          <t>1270089000</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>30631000000</t>
+          <t>869186000</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>27699000000</t>
+          <t>869186000</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>13593000000</t>
+          <t>97595000</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2932000000</t>
+          <t>192998000</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>1422000000</t>
+          <t>110310000</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>4354000000</t>
+          <t>479570000</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>410000000</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>-85000000</t>
+          <t>-10052000</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -6317,17 +6317,17 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>85000000</t>
+          <t>10052000</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>-100000000</t>
+          <t>1401000</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
@@ -6337,47 +6337,47 @@
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>1887000000</t>
+          <t>629238000</t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>13818000000</t>
+          <t>88944000</t>
         </is>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>3595000000</t>
+          <t>35829000</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>85000000</t>
+          <t>10052000</t>
         </is>
       </c>
       <c r="W44" t="inlineStr">
         <is>
-          <t>10223000000</t>
+          <t>53115000</t>
         </is>
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>10278000000</t>
+          <t>54043000</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>13903000000</t>
+          <t>98996000</t>
         </is>
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>15480000000</t>
+          <t>726833000</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>10223000000</t>
+          <t>53115000</t>
         </is>
       </c>
     </row>
@@ -6397,52 +6397,52 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>21846000000</t>
+          <t>354553000</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>57510000000</t>
+          <t>1175230000</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>38801000000</t>
+          <t>820677000</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>35748000000</t>
+          <t>811849000</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>17463000000</t>
+          <t>82288000</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>3053000000</t>
+          <t>620865000</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>1330000000</t>
+          <t>98128000</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>4383000000</t>
+          <t>870679000</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>427000000</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>-84000000</t>
+          <t>-7438000</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -6452,17 +6452,17 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>84000000</t>
+          <t>7438000</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>-8400000</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>-97000000</t>
+          <t>-846000</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
@@ -6472,47 +6472,47 @@
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>2144000000</t>
+          <t>603275000</t>
         </is>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>17709000000</t>
+          <t>74004000</t>
         </is>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>4637000000</t>
+          <t>25583000</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>84000000</t>
+          <t>7438000</t>
         </is>
       </c>
       <c r="W45" t="inlineStr">
         <is>
-          <t>13072000000</t>
+          <t>363381000</t>
         </is>
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>13237000000</t>
+          <t>50426000</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>17793000000</t>
+          <t>81442000</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>19607000000</t>
+          <t>685563000</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>13072000000</t>
+          <t>48421000</t>
         </is>
       </c>
     </row>
@@ -6532,52 +6532,52 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>13871000000</t>
+          <t>307099000</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>37472000000</t>
+          <t>1105999000</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>32074000000</t>
+          <t>798900000</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>23601000000</t>
+          <t>791019000</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>10030000000</t>
+          <t>57120000</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2673000000</t>
+          <t>162320000</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>1168000000</t>
+          <t>95540000</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>3841000000</t>
+          <t>407047000</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>390000000</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>-83000000</t>
+          <t>-7436000</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -6587,17 +6587,17 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>83000000</t>
+          <t>7436000</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>-194000000</t>
+          <t>-193000</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
@@ -6607,47 +6607,47 @@
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>1783000000</t>
+          <t>582392000</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>10143000000</t>
+          <t>49491000</t>
         </is>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>2631000000</t>
+          <t>17669000</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>83000000</t>
+          <t>7436000</t>
         </is>
       </c>
       <c r="W46" t="inlineStr">
         <is>
-          <t>13871000000</t>
+          <t>31822000</t>
         </is>
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>7275000000</t>
+          <t>35056000</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>10226000000</t>
+          <t>56927000</t>
         </is>
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>11813000000</t>
+          <t>639512000</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>7512000000</t>
+          <t>31822000</t>
         </is>
       </c>
     </row>
@@ -6667,52 +6667,52 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>13024000000</t>
+          <t>308698000</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>35270000000</t>
+          <t>1069372000</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>24944000000</t>
+          <t>760674000</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>22299000000</t>
+          <t>753525000</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>9201000000</t>
+          <t>57117000</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2645000000</t>
+          <t>165604000</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>1178000000</t>
+          <t>93126000</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>3823000000</t>
+          <t>403228000</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>385000000</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>-53000000</t>
+          <t>-7528000</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -6722,17 +6722,17 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>53000000</t>
+          <t>7528000</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>-98000000</t>
+          <t>-2940000</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
@@ -6742,47 +6742,47 @@
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>1694000000</t>
+          <t>539985000</t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>9435000000</t>
+          <t>46649000</t>
         </is>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>2535000000</t>
+          <t>17178000</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>53000000</t>
+          <t>7528000</t>
         </is>
       </c>
       <c r="W47" t="inlineStr">
         <is>
-          <t>6900000000</t>
+          <t>29471000</t>
         </is>
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>5702000000</t>
+          <t>27516000</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>9488000000</t>
+          <t>54177000</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>11182000000</t>
+          <t>597102000</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>6900000000</t>
+          <t>29471000</t>
         </is>
       </c>
     </row>
@@ -6802,52 +6802,52 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>16349000000</t>
+          <t>287009000</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>43603000000</t>
+          <t>1023961000</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>29926000000</t>
+          <t>736952000</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>27254000000</t>
+          <t>726863000</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>12558000000</t>
+          <t>31822000</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>2672000000</t>
+          <t>173301000</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>1119000000</t>
+          <t>91975000</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>3791000000</t>
+          <t>445297000</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>420000000</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-6740000</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -6857,17 +6857,17 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6740000</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>-25129000</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>-73000000</t>
+          <t>977000</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
@@ -6877,47 +6877,47 @@
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>1692000000</t>
+          <t>12051000</t>
         </is>
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>12905000000</t>
+          <t>930000</t>
         </is>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>3358000000</t>
+          <t>-1759000</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>31869000</t>
         </is>
       </c>
       <c r="W48" t="inlineStr">
         <is>
-          <t>9547000000</t>
+          <t>2689000</t>
         </is>
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>9899000000</t>
+          <t>61000</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>12905000000</t>
+          <t>7670000</t>
         </is>
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>14597000000</t>
+          <t>19721000</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>9547000000</t>
+          <t>2689000</t>
         </is>
       </c>
     </row>
@@ -6937,52 +6937,52 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>21060000000</t>
+          <t>249372000</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>54512000000</t>
+          <t>945239000</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>36292000000</t>
+          <t>722059000</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>33452000000</t>
+          <t>695867000</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>17210000000</t>
+          <t>19638000</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>2840000000</t>
+          <t>524795000</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>1010000000</t>
+          <t>82139000</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>3850000000</t>
+          <t>1121084000</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>421000000</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-5016000</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -6992,17 +6992,17 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5016000</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>-4000000</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>41000000</t>
+          <t>282000</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
@@ -7012,47 +7012,47 @@
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>1588000000</t>
+          <t>11963000</t>
         </is>
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>17672000000</t>
+          <t>14904000</t>
         </is>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>4594000000</t>
+          <t>7007000</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5016000</t>
         </is>
       </c>
       <c r="W49" t="inlineStr">
         <is>
-          <t>13078000000</t>
+          <t>249372000</t>
         </is>
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>13191000000</t>
+          <t>7810000</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>17672000000</t>
+          <t>19920000</t>
         </is>
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>19260000000</t>
+          <t>31883000</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>13078000000</t>
+          <t>7897000</t>
         </is>
       </c>
     </row>
@@ -7072,42 +7072,42 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>14401000000</t>
+          <t>242451000</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>35966000000</t>
+          <t>905089000</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>26716000000</t>
+          <t>662638000</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>21565000000</t>
+          <t>602165000</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>10944000000</t>
+          <t>16135000</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>2551000000</t>
+          <t>143795000</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>906000000</t>
+          <t>82521000</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>3457000000</t>
+          <t>226316000</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -7117,7 +7117,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>-4990000</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -7127,17 +7127,17 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>51000000</t>
+          <t>4990000</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>-51000000</t>
+          <t>801000</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
@@ -7147,47 +7147,47 @@
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>981000000</t>
+          <t>11128000</t>
         </is>
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>10893000000</t>
+          <t>11946000</t>
         </is>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>2670000000</t>
+          <t>4271000</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>4990000</t>
         </is>
       </c>
       <c r="W50" t="inlineStr">
         <is>
-          <t>14401000000</t>
+          <t>7675000</t>
         </is>
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>8190000000</t>
+          <t>9720000</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>10944000000</t>
+          <t>16936000</t>
         </is>
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>11925000000</t>
+          <t>28064000</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>8223000000</t>
+          <t>7675000</t>
         </is>
       </c>
     </row>
@@ -7207,42 +7207,42 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>14994000000</t>
+          <t>245735000</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>35023000000</t>
+          <t>889163000</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>22574000000</t>
+          <t>643428000</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>20029000000</t>
+          <t>583636000</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>11573000000</t>
+          <t>16154000</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>2545000000</t>
+          <t>148034000</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>876000000</t>
+          <t>81547000</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>3421000000</t>
+          <t>229581000</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -7252,7 +7252,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>-5006000</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -7262,17 +7262,17 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>288000000</t>
+          <t>5006000</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>288000000</t>
+          <t>-493000</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
@@ -7282,47 +7282,47 @@
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>835000000</t>
+          <t>11047000</t>
         </is>
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>11861000000</t>
+          <t>10655000</t>
         </is>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>3037000000</t>
+          <t>4491000</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>5006000</t>
         </is>
       </c>
       <c r="W51" t="inlineStr">
         <is>
-          <t>8824000000</t>
+          <t>6164000</t>
         </is>
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>8832000000</t>
+          <t>5548000</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>11573000000</t>
+          <t>15661000</t>
         </is>
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>12696000000</t>
+          <t>26708000</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>8824000000</t>
+          <t>6164000</t>
         </is>
       </c>
     </row>
@@ -7342,42 +7342,42 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>18564000000</t>
+          <t>245858000</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>39186000000</t>
+          <t>869791000</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>22961000000</t>
+          <t>623933000</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>20622000000</t>
+          <t>564015000</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>15384000000</t>
+          <t>-1935000</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>2339000000</t>
+          <t>164992000</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>841000000</t>
+          <t>82801000</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>3180000000</t>
+          <t>247793000</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -7387,7 +7387,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>-4974000</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -7397,17 +7397,17 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>148000000</t>
+          <t>4974000</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>148000000</t>
+          <t>-116000</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
@@ -7417,47 +7417,47 @@
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>740000000</t>
+          <t>11331000</t>
         </is>
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>15532000000</t>
+          <t>-7025000</t>
         </is>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>3910000000</t>
+          <t>-2441000</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>4974000</t>
         </is>
       </c>
       <c r="W52" t="inlineStr">
         <is>
-          <t>11622000000</t>
+          <t>-4584000</t>
         </is>
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>11762000000</t>
+          <t>-3713000</t>
         </is>
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>15384000000</t>
+          <t>-2051000</t>
         </is>
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>15384000000</t>
+          <t>9280000</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>11622000000</t>
+          <t>-4584000</t>
         </is>
       </c>
     </row>
@@ -7477,42 +7477,42 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>20703000000</t>
+          <t>300420000</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>46333000000</t>
+          <t>875575000</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>28235000000</t>
+          <t>575155000</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>25630000000</t>
+          <t>512578000</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>17340000000</t>
+          <t>61872000</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>2605000000</t>
+          <t>114288000</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>758000000</t>
+          <t>80783000</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>3363000000</t>
+          <t>238548000</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -7522,7 +7522,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>-4942000</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -7532,7 +7532,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>137000000</t>
+          <t>4942000</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
@@ -7542,7 +7542,7 @@
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>137000000</t>
+          <t>-5037000</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
@@ -7552,47 +7552,47 @@
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>721000000</t>
+          <t>11826000</t>
         </is>
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>17477000000</t>
+          <t>56835000</t>
         </is>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>4413000000</t>
+          <t>21616000</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>4942000</t>
         </is>
       </c>
       <c r="W53" t="inlineStr">
         <is>
-          <t>13064000000</t>
+          <t>35219000</t>
         </is>
       </c>
       <c r="X53" t="inlineStr">
         <is>
-          <t>13005000000</t>
+          <t>35337000</t>
         </is>
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>17340000000</t>
+          <t>61777000</t>
         </is>
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>18061000000</t>
+          <t>73603000</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>13064000000</t>
+          <t>35219000</t>
         </is>
       </c>
     </row>
@@ -7612,42 +7612,42 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>11380000000</t>
+          <t>285222000</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>28270000000</t>
+          <t>821839000</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>20515000000</t>
+          <t>536617000</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>16890000000</t>
+          <t>471823000</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>8710000000</t>
+          <t>96842000</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>2025000000</t>
+          <t>118900000</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>645000000</t>
+          <t>69480000</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>2670000000</t>
+          <t>188380000</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -7657,7 +7657,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>-4915000</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -7667,7 +7667,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>81000000</t>
+          <t>4915000</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
@@ -7677,7 +7677,7 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>81000000</t>
+          <t>1696000</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
@@ -7687,47 +7687,47 @@
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>543000000</t>
+          <t>11913000</t>
         </is>
       </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t>8791000000</t>
+          <t>93623000</t>
         </is>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>2168000000</t>
+          <t>31163000</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>4915000</t>
         </is>
       </c>
       <c r="W54" t="inlineStr">
         <is>
-          <t>11380000000</t>
+          <t>62460000</t>
         </is>
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>6677000000</t>
+          <t>62164000</t>
         </is>
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>8710000000</t>
+          <t>98538000</t>
         </is>
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>9253000000</t>
+          <t>110451000</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>6623000000</t>
+          <t>62460000</t>
         </is>
       </c>
     </row>
@@ -7747,42 +7747,42 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>11922000000</t>
+          <t>298632000</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>28571000000</t>
+          <t>788610000</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>18564000000</t>
+          <t>489978000</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>16649000000</t>
+          <t>428203000</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>9379000000</t>
+          <t>115114000</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>1915000000</t>
+          <t>125653000</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>628000000</t>
+          <t>57865000</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>2543000000</t>
+          <t>183518000</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -7792,7 +7792,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>-5303000</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -7802,7 +7802,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>172000000</t>
+          <t>5303000</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
@@ -7812,7 +7812,7 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>172000000</t>
+          <t>1013000</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
@@ -7822,47 +7822,47 @@
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>481000000</t>
+          <t>10182000</t>
         </is>
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>9551000000</t>
+          <t>110824000</t>
         </is>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>2243000000</t>
+          <t>42610000</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>5303000</t>
         </is>
       </c>
       <c r="W55" t="inlineStr">
         <is>
-          <t>7308000000</t>
+          <t>68214000</t>
         </is>
       </c>
       <c r="X55" t="inlineStr">
         <is>
-          <t>7571000000</t>
+          <t>68508000</t>
         </is>
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>9379000000</t>
+          <t>116127000</t>
         </is>
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>9860000000</t>
+          <t>126309000</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>7308000000</t>
+          <t>68214000</t>
         </is>
       </c>
     </row>
@@ -7882,42 +7882,42 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>10218000000</t>
+          <t>280402000</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>24708000000</t>
+          <t>718553000</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>16212000000</t>
+          <t>438151000</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>14449000000</t>
+          <t>376992000</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>7874000000</t>
+          <t>102240000</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>1763000000</t>
+          <t>127257000</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>581000000</t>
+          <t>50905000</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>2344000000</t>
+          <t>178162000</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -7927,7 +7927,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>-4865000</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -7937,7 +7937,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>26000000</t>
+          <t>4865000</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
@@ -7947,7 +7947,7 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>26000000</t>
+          <t>865000</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
@@ -7957,47 +7957,47 @@
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>434000000</t>
+          <t>9826000</t>
         </is>
       </c>
       <c r="T56" t="inlineStr">
         <is>
-          <t>7900000000</t>
+          <t>98240000</t>
         </is>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>1913000000</t>
+          <t>38007000</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>4865000</t>
         </is>
       </c>
       <c r="W56" t="inlineStr">
         <is>
-          <t>5987000000</t>
+          <t>60233000</t>
         </is>
       </c>
       <c r="X56" t="inlineStr">
         <is>
-          <t>5999000000</t>
+          <t>60073000</t>
         </is>
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>7874000000</t>
+          <t>103105000</t>
         </is>
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>8308000000</t>
+          <t>112931000</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>5987000000</t>
+          <t>60233000</t>
         </is>
       </c>
     </row>
@@ -8017,42 +8017,42 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>10298000000</t>
+          <t>205132000</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>26741000000</t>
+          <t>595922000</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>18339000000</t>
+          <t>390790000</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>16443000000</t>
+          <t>336756000</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>7827000000</t>
+          <t>78453000</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>1896000000</t>
+          <t>81957000</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>575000000</t>
+          <t>45959000</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>2471000000</t>
+          <t>126679000</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -8062,7 +8062,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>-4832000</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -8072,7 +8072,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>136000000</t>
+          <t>4832000</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
@@ -8082,7 +8082,7 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>136000000</t>
+          <t>-18691000</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
@@ -8092,47 +8092,47 @@
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>356000000</t>
+          <t>9253000</t>
         </is>
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t>7963000000</t>
+          <t>74559000</t>
         </is>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>1959000000</t>
+          <t>27464000</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>4832000</t>
         </is>
       </c>
       <c r="W57" t="inlineStr">
         <is>
-          <t>6004000000</t>
+          <t>205132000</t>
         </is>
       </c>
       <c r="X57" t="inlineStr">
         <is>
-          <t>6164000000</t>
+          <t>47572000</t>
         </is>
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>7827000000</t>
+          <t>79391000</t>
         </is>
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>8183000000</t>
+          <t>88644000</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>6004000000</t>
+          <t>47095000</t>
         </is>
       </c>
     </row>
@@ -8152,42 +8152,42 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>7512000000</t>
+          <t>208750000</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>20343000000</t>
+          <t>553219000</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>15217000000</t>
+          <t>344469000</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>12831000000</t>
+          <t>292406000</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>5447000000</t>
+          <t>69501000</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>1571000000</t>
+          <t>98373000</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>494000000</t>
+          <t>42108000</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>2065000000</t>
+          <t>139249000</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -8197,7 +8197,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>-4945000</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -8207,7 +8207,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>14000000</t>
+          <t>4945000</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
@@ -8217,7 +8217,7 @@
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>14000000</t>
+          <t>853000</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
@@ -8227,47 +8227,47 @@
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>329000000</t>
+          <t>8678000</t>
         </is>
       </c>
       <c r="T58" t="inlineStr">
         <is>
-          <t>5461000000</t>
+          <t>65409000</t>
         </is>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>1153000000</t>
+          <t>27442000</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>4945000</t>
         </is>
       </c>
       <c r="W58" t="inlineStr">
         <is>
-          <t>7512000000</t>
+          <t>37967000</t>
         </is>
       </c>
       <c r="X58" t="inlineStr">
         <is>
-          <t>4154000000</t>
+          <t>37967000</t>
         </is>
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>5447000000</t>
+          <t>70354000</t>
         </is>
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>5776000000</t>
+          <t>79032000</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>4308000000</t>
+          <t>37967000</t>
         </is>
       </c>
     </row>
@@ -8287,42 +8287,42 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>6136000000</t>
+          <t>204885000</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>15700000000</t>
+          <t>519819000</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>11002000000</t>
+          <t>314934000</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>9564000000</t>
+          <t>265387000</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>4234000000</t>
+          <t>77342000</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>1438000000</t>
+          <t>91652000</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>464000000</t>
+          <t>37863000</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>1902000000</t>
+          <t>127543000</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -8332,7 +8332,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>-4893000</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -8342,7 +8342,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>58000000</t>
+          <t>4893000</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
@@ -8352,7 +8352,7 @@
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>58000000</t>
+          <t>921000</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
@@ -8362,47 +8362,47 @@
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>273000000</t>
+          <t>9309000</t>
         </is>
       </c>
       <c r="T59" t="inlineStr">
         <is>
-          <t>4292000000</t>
+          <t>73370000</t>
         </is>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>1039000000</t>
+          <t>29851000</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>4893000</t>
         </is>
       </c>
       <c r="W59" t="inlineStr">
         <is>
-          <t>3253000000</t>
+          <t>43519000</t>
         </is>
       </c>
       <c r="X59" t="inlineStr">
         <is>
-          <t>3236000000</t>
+          <t>43519000</t>
         </is>
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>4234000000</t>
+          <t>78263000</t>
         </is>
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>4507000000</t>
+          <t>87572000</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
         <is>
-          <t>3253000000</t>
+          <t>43519000</t>
         </is>
       </c>
     </row>
@@ -8422,42 +8422,42 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>5625000000</t>
+          <t>186503000</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>13499000000</t>
+          <t>493665000</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>9094000000</t>
+          <t>307162000</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>7874000000</t>
+          <t>259560000</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>3979000000</t>
+          <t>58345000</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>1220000000</t>
+          <t>92412000</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>426000000</t>
+          <t>37399000</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>1646000000</t>
+          <t>128158000</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -8467,7 +8467,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>-4959000</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -8477,7 +8477,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>266000000</t>
+          <t>4959000</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
@@ -8487,7 +8487,7 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>50000000</t>
+          <t>972000</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
@@ -8497,47 +8497,47 @@
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>216000000</t>
+          <t>10859000</t>
         </is>
       </c>
       <c r="T60" t="inlineStr">
         <is>
-          <t>4029000000</t>
+          <t>54358000</t>
         </is>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>955000000</t>
+          <t>22086000</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>4959000</t>
         </is>
       </c>
       <c r="W60" t="inlineStr">
         <is>
-          <t>3074000000</t>
+          <t>32272000</t>
         </is>
       </c>
       <c r="X60" t="inlineStr">
         <is>
-          <t>3088000000</t>
+          <t>32272000</t>
         </is>
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>3979000000</t>
+          <t>59317000</t>
         </is>
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>3979000000</t>
+          <t>70176000</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
         <is>
-          <t>3074000000</t>
+          <t>32272000</t>
         </is>
       </c>
     </row>
@@ -8557,42 +8557,42 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>6411000000</t>
+          <t>169056000</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>15683000000</t>
+          <t>444542000</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>10560000000</t>
+          <t>275486000</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>9272000000</t>
+          <t>231598000</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>4725000000</t>
+          <t>53349000</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>1288000000</t>
+          <t>84239000</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>398000000</t>
+          <t>33209000</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>1686000000</t>
+          <t>115707000</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -8602,7 +8602,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>-4457000</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -8612,7 +8612,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>33000000</t>
+          <t>4457000</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
@@ -8622,7 +8622,7 @@
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>33000000</t>
+          <t>2444000</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
@@ -8632,47 +8632,47 @@
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>209000000</t>
+          <t>10238000</t>
         </is>
       </c>
       <c r="T61" t="inlineStr">
         <is>
-          <t>4758000000</t>
+          <t>51336000</t>
         </is>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>1380000000</t>
+          <t>20423000</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>4457000</t>
         </is>
       </c>
       <c r="W61" t="inlineStr">
         <is>
-          <t>3378000000</t>
+          <t>30913000</t>
         </is>
       </c>
       <c r="X61" t="inlineStr">
         <is>
-          <t>3412000000</t>
+          <t>31102000</t>
         </is>
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>4725000000</t>
+          <t>55793000</t>
         </is>
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>4934000000</t>
+          <t>66031000</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
         <is>
-          <t>3378000000</t>
+          <t>30913000</t>
         </is>
       </c>
     </row>
@@ -8692,42 +8692,42 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>5105000000</t>
+          <t>147846000</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>12207000000</t>
+          <t>423120000</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>7102000000</t>
+          <t>275274000</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>7102000000</t>
+          <t>233091000</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>3684000000</t>
+          <t>49337000</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>1063000000</t>
+          <t>70099000</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>358000000</t>
+          <t>30014000</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>1421000000</t>
+          <t>98509000</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -8737,7 +8737,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>-674000</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -8747,7 +8747,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>45000000</t>
+          <t>674000</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
@@ -8757,7 +8757,7 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>1808000</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
@@ -8767,47 +8767,47 @@
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>197000000</t>
+          <t>9618000</t>
         </is>
       </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>3729000000</t>
+          <t>50471000</t>
         </is>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>1197000000</t>
+          <t>20330000</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>674000</t>
         </is>
       </c>
       <c r="W62" t="inlineStr">
         <is>
-          <t>5105000000</t>
+          <t>30141000</t>
         </is>
       </c>
       <c r="X62" t="inlineStr">
         <is>
-          <t>2628000000</t>
+          <t>30141000</t>
         </is>
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>3684000000</t>
+          <t>51145000</t>
         </is>
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>2390000000</t>
+          <t>60763000</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
         <is>
-          <t>2532000000</t>
+          <t>30141000</t>
         </is>
       </c>
     </row>
@@ -8827,42 +8827,42 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>3983000000</t>
+          <t>139266000</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>8337000000</t>
+          <t>408509000</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>5314000000</t>
+          <t>269243000</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>5751000000</t>
+          <t>224858000</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2632000000</t>
+          <t>52782000</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>1010000000</t>
+          <t>59483000</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>341000000</t>
+          <t>27119000</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>1351000000</t>
+          <t>86484000</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>-674000</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -8882,7 +8882,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>236000000</t>
+          <t>674000</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
@@ -8892,7 +8892,7 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>60000000</t>
+          <t>866000</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
@@ -8902,47 +8902,47 @@
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>176000000</t>
+          <t>9013000</t>
         </is>
       </c>
       <c r="T63" t="inlineStr">
         <is>
-          <t>2692000000</t>
+          <t>52974000</t>
         </is>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>864000000</t>
+          <t>20531000</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>674000</t>
         </is>
       </c>
       <c r="W63" t="inlineStr">
         <is>
-          <t>1229000000</t>
+          <t>64886000</t>
         </is>
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>1900000000</t>
+          <t>32443000</t>
         </is>
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>2632000000</t>
+          <t>53648000</t>
         </is>
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>1672000000</t>
+          <t>62661000</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
         <is>
-          <t>1828000000</t>
+          <t>32443000</t>
         </is>
       </c>
     </row>
@@ -8962,42 +8962,42 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>3627000000</t>
+          <t>134830000</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>8163000000</t>
+          <t>394098000</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>5192000000</t>
+          <t>259268000</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>5457000000</t>
+          <t>259268000</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2323000000</t>
+          <t>36471000</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>985000000</t>
+          <t>13014000</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>319000000</t>
+          <t>24200000</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>1304000000</t>
+          <t>98359000</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -9017,7 +9017,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>63000000</t>
+          <t>670000</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
@@ -9037,17 +9037,17 @@
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>172000000</t>
+          <t>9175000</t>
         </is>
       </c>
       <c r="T64" t="inlineStr">
         <is>
-          <t>2386000000</t>
+          <t>37411000</t>
         </is>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>766000000</t>
+          <t>15048000</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
@@ -9067,17 +9067,17 @@
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>2323000000</t>
+          <t>38081000</t>
         </is>
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>1839000000</t>
+          <t>47256000</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
         <is>
-          <t>1620000000</t>
+          <t>22363000</t>
         </is>
       </c>
     </row>
@@ -9097,42 +9097,42 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>4507000000</t>
+          <t>126749000</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10167000000</t>
+          <t>359595000</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>6635000000</t>
+          <t>232846000</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>7373000000</t>
+          <t>232846000</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>3101000000</t>
+          <t>37921000</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>1091000000</t>
+          <t>49662000</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>315000000</t>
+          <t>24052000</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>1406000000</t>
+          <t>88828000</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -9152,7 +9152,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>158000000</t>
+          <t>677000</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
@@ -9172,17 +9172,17 @@
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>158000000</t>
+          <t>9141000</t>
         </is>
       </c>
       <c r="T65" t="inlineStr">
         <is>
-          <t>3259000000</t>
+          <t>38096000</t>
         </is>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>1004000000</t>
+          <t>15364000</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
@@ -9202,17 +9202,17 @@
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>3101000000</t>
+          <t>38773000</t>
         </is>
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>2284000000</t>
+          <t>47914000</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>2255000000</t>
+          <t>22732000</t>
         </is>
       </c>
     </row>
@@ -9232,42 +9232,42 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>4791000000</t>
+          <t>116773000</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>7895000000</t>
+          <t>341269000</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>5156000000</t>
+          <t>224496000</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>8116000000</t>
+          <t>224496000</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>3494000000</t>
+          <t>34074000</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>999000000</t>
+          <t>11742000</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>298000000</t>
+          <t>23368000</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>1297000000</t>
+          <t>82699000</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -9287,7 +9287,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>140000000</t>
+          <t>677000</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
@@ -9307,17 +9307,17 @@
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>134000000</t>
+          <t>8643000</t>
         </is>
       </c>
       <c r="T66" t="inlineStr">
         <is>
-          <t>3634000000</t>
+          <t>34933000</t>
         </is>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>1213000000</t>
+          <t>14562000</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
@@ -9337,17 +9337,17 @@
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>3494000000</t>
+          <t>35610000</t>
         </is>
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>1442000000</t>
+          <t>44253000</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
         <is>
-          <t>2421000000</t>
+          <t>20371000</t>
         </is>
       </c>
     </row>
@@ -9367,42 +9367,42 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2600000000</t>
+          <t>107527000</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>7464000000</t>
+          <t>337614000</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>4864000000</t>
+          <t>230087000</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>4864000000</t>
+          <t>230087000</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>1392000000</t>
+          <t>34201000</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>916000000</t>
+          <t>13419000</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>292000000</t>
+          <t>22186000</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>1208000000</t>
+          <t>73326000</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -9422,7 +9422,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>118000000</t>
+          <t>681000</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
@@ -9442,17 +9442,17 @@
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>117000000</t>
+          <t>8188000</t>
         </is>
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>1510000000</t>
+          <t>35924000</t>
         </is>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>438000000</t>
+          <t>9345000</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
@@ -9472,17 +9472,17 @@
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>1392000000</t>
+          <t>36605000</t>
         </is>
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>1392000000</t>
+          <t>44793000</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
         <is>
-          <t>1072000000</t>
+          <t>26579000</t>
         </is>
       </c>
     </row>
